--- a/Orgs/Arbeitsplan_Gruppe1.xlsx
+++ b/Orgs/Arbeitsplan_Gruppe1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49152\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659F068E-72DC-4CFB-ADEE-E1ECAACF9066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56810F68-C7E3-404F-BDE1-8B1D1177FC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{25AC94EB-6971-4BF1-BB0A-B1F51B931EA3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -138,6 +138,42 @@
   </si>
   <si>
     <t>Mock-Ups/ UML Klassendiagramme</t>
+  </si>
+  <si>
+    <t>Sprints</t>
+  </si>
+  <si>
+    <t>2: DB Models &amp; View def</t>
+  </si>
+  <si>
+    <t>3: Views &amp; BE-Funkt</t>
+  </si>
+  <si>
+    <t>4: Website Funk &amp; BE-Tests</t>
+  </si>
+  <si>
+    <t>5: Aufräumen für ZwPräs</t>
+  </si>
+  <si>
+    <t>6: App BE - DB, FE Mockups</t>
+  </si>
+  <si>
+    <t>7: App FE &amp; BE</t>
+  </si>
+  <si>
+    <t>8: Web Manager-Dashboard</t>
+  </si>
+  <si>
+    <t>9:  Leftover or Optionals</t>
+  </si>
+  <si>
+    <t>10: Bugs &amp; Bedienungsanleitung</t>
+  </si>
+  <si>
+    <t>11: Finaler Schliff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: Mockups &amp; Planning</t>
   </si>
 </sst>
 </file>
@@ -171,7 +207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +256,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -247,42 +325,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -318,12 +365,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="180"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -331,6 +372,39 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -680,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DF9527-3607-47A3-BF6C-F5CAF27EE9B7}">
-  <dimension ref="A2:CJ21"/>
+  <dimension ref="A2:CJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AS7" sqref="AS7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,117 +769,117 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="28" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="28" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="28" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="28" t="s">
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="28" t="s">
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="28" t="s">
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="28" t="s">
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="29"/>
-      <c r="BA2" s="29"/>
-      <c r="BB2" s="29"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="28" t="s">
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="BE2" s="29"/>
-      <c r="BF2" s="29"/>
-      <c r="BG2" s="29"/>
-      <c r="BH2" s="29"/>
-      <c r="BI2" s="29"/>
-      <c r="BJ2" s="30"/>
-      <c r="BK2" s="28" t="s">
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="36"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="BL2" s="29"/>
-      <c r="BM2" s="29"/>
-      <c r="BN2" s="29"/>
-      <c r="BO2" s="29"/>
-      <c r="BP2" s="29"/>
-      <c r="BQ2" s="30"/>
-      <c r="BR2" s="28" t="s">
+      <c r="BL2" s="36"/>
+      <c r="BM2" s="36"/>
+      <c r="BN2" s="36"/>
+      <c r="BO2" s="36"/>
+      <c r="BP2" s="36"/>
+      <c r="BQ2" s="37"/>
+      <c r="BR2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="BS2" s="29"/>
-      <c r="BT2" s="29"/>
-      <c r="BU2" s="29"/>
-      <c r="BV2" s="29"/>
-      <c r="BW2" s="29"/>
-      <c r="BX2" s="30"/>
-      <c r="BY2" s="28" t="s">
+      <c r="BS2" s="36"/>
+      <c r="BT2" s="36"/>
+      <c r="BU2" s="36"/>
+      <c r="BV2" s="36"/>
+      <c r="BW2" s="36"/>
+      <c r="BX2" s="37"/>
+      <c r="BY2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="BZ2" s="29"/>
-      <c r="CA2" s="29"/>
-      <c r="CB2" s="29"/>
-      <c r="CC2" s="29"/>
-      <c r="CD2" s="29"/>
-      <c r="CE2" s="30"/>
-      <c r="CF2" s="28" t="s">
+      <c r="BZ2" s="36"/>
+      <c r="CA2" s="36"/>
+      <c r="CB2" s="36"/>
+      <c r="CC2" s="36"/>
+      <c r="CD2" s="36"/>
+      <c r="CE2" s="37"/>
+      <c r="CF2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="CG2" s="29"/>
-      <c r="CH2" s="29"/>
-      <c r="CI2" s="29"/>
-      <c r="CJ2" s="30"/>
+      <c r="CG2" s="36"/>
+      <c r="CH2" s="36"/>
+      <c r="CI2" s="36"/>
+      <c r="CJ2" s="37"/>
     </row>
     <row r="3" spans="1:88" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1074,7 +1148,7 @@
       </c>
     </row>
     <row r="4" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4"/>
@@ -1216,7 +1290,7 @@
       <c r="CJ7" s="9"/>
     </row>
     <row r="8" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3"/>
@@ -1392,7 +1466,7 @@
       <c r="CJ12" s="9"/>
     </row>
     <row r="13" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="5"/>
@@ -1460,7 +1534,7 @@
       <c r="CJ14" s="9"/>
     </row>
     <row r="15" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="6"/>
@@ -1564,7 +1638,7 @@
       <c r="CJ17" s="9"/>
     </row>
     <row r="18" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="2"/>
@@ -1641,93 +1715,33 @@
       <c r="C20" s="1">
         <v>45121</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="20"/>
-      <c r="AI20" s="21"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="20"/>
-      <c r="AP20" s="21"/>
-      <c r="AQ20" s="19"/>
-      <c r="AR20" s="19"/>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="22"/>
-      <c r="AU20" s="19"/>
-      <c r="AV20" s="20"/>
-      <c r="AW20" s="21"/>
-      <c r="AX20" s="19"/>
-      <c r="AY20" s="19"/>
-      <c r="AZ20" s="19"/>
-      <c r="BA20" s="19"/>
-      <c r="BB20" s="19"/>
-      <c r="BC20" s="20"/>
-      <c r="BD20" s="21"/>
-      <c r="BE20" s="19"/>
-      <c r="BF20" s="19"/>
-      <c r="BG20" s="19"/>
-      <c r="BH20" s="19"/>
-      <c r="BI20" s="19"/>
-      <c r="BJ20" s="20"/>
-      <c r="BK20" s="21"/>
-      <c r="BL20" s="19"/>
-      <c r="BM20" s="19"/>
-      <c r="BN20" s="19"/>
-      <c r="BO20" s="19"/>
-      <c r="BP20" s="19"/>
-      <c r="BQ20" s="20"/>
-      <c r="BR20" s="21"/>
-      <c r="BS20" s="19"/>
-      <c r="BT20" s="19"/>
-      <c r="BU20" s="19"/>
-      <c r="BV20" s="19"/>
-      <c r="BW20" s="19"/>
-      <c r="BX20" s="20"/>
-      <c r="BY20" s="21"/>
-      <c r="BZ20" s="19"/>
-      <c r="CA20" s="19"/>
-      <c r="CB20" s="19"/>
-      <c r="CC20" s="19"/>
-      <c r="CD20" s="19"/>
-      <c r="CE20" s="20"/>
-      <c r="CF20" s="21"/>
-      <c r="CG20" s="19"/>
-      <c r="CH20" s="19"/>
-      <c r="CI20" s="19"/>
-      <c r="CJ20" s="20"/>
-    </row>
-    <row r="21" spans="1:88" ht="108" x14ac:dyDescent="0.25">
+      <c r="F20" s="9"/>
+      <c r="G20" s="11"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="11"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="11"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="11"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="11"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="11"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="11"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="11"/>
+      <c r="BJ20" s="9"/>
+      <c r="BK20" s="11"/>
+      <c r="BQ20" s="9"/>
+      <c r="BR20" s="11"/>
+      <c r="BX20" s="9"/>
+      <c r="BY20" s="11"/>
+      <c r="CE20" s="9"/>
+      <c r="CF20" s="11"/>
+      <c r="CJ20" s="9"/>
+    </row>
+    <row r="21" spans="1:88" ht="108.75" x14ac:dyDescent="0.25">
       <c r="K21" s="18" t="s">
         <v>30</v>
       </c>
@@ -1738,14 +1752,118 @@
         <v>32</v>
       </c>
     </row>
+    <row r="22" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH22" s="34"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="34"/>
+      <c r="AK22" s="34"/>
+      <c r="AL22" s="34"/>
+      <c r="AM22" s="34"/>
+      <c r="AN22" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV22" s="27"/>
+      <c r="AW22" s="27"/>
+      <c r="AX22" s="27"/>
+      <c r="AY22" s="27"/>
+      <c r="AZ22" s="27"/>
+      <c r="BA22" s="27"/>
+      <c r="BB22" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC22" s="28"/>
+      <c r="BD22" s="28"/>
+      <c r="BE22" s="28"/>
+      <c r="BF22" s="28"/>
+      <c r="BG22" s="28"/>
+      <c r="BH22" s="28"/>
+      <c r="BI22" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ22" s="29"/>
+      <c r="BK22" s="29"/>
+      <c r="BL22" s="29"/>
+      <c r="BM22" s="29"/>
+      <c r="BN22" s="29"/>
+      <c r="BO22" s="29"/>
+      <c r="BP22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ22" s="30"/>
+      <c r="BR22" s="30"/>
+      <c r="BS22" s="30"/>
+      <c r="BT22" s="30"/>
+      <c r="BU22" s="30"/>
+      <c r="BV22" s="30"/>
+      <c r="BW22" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX22" s="24"/>
+      <c r="BY22" s="24"/>
+      <c r="BZ22" s="24"/>
+      <c r="CA22" s="24"/>
+      <c r="CB22" s="24"/>
+      <c r="CC22" s="24"/>
+      <c r="CD22" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="CE22" s="25"/>
+      <c r="CF22" s="25"/>
+      <c r="CG22" s="25"/>
+      <c r="CH22" s="25"/>
+      <c r="CI22" s="25"/>
+      <c r="CJ22" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="24">
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="U2:AA2"/>
     <mergeCell ref="AB2:AH2"/>
-    <mergeCell ref="BY2:CE2"/>
     <mergeCell ref="CF2:CJ2"/>
     <mergeCell ref="AI2:AO2"/>
     <mergeCell ref="AP2:AV2"/>
@@ -1753,6 +1871,18 @@
     <mergeCell ref="BD2:BJ2"/>
     <mergeCell ref="BK2:BQ2"/>
     <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="S22:Y22"/>
+    <mergeCell ref="Z22:AF22"/>
+    <mergeCell ref="AG22:AM22"/>
+    <mergeCell ref="BY2:CE2"/>
+    <mergeCell ref="BW22:CC22"/>
+    <mergeCell ref="CD22:CJ22"/>
+    <mergeCell ref="AN22:AT22"/>
+    <mergeCell ref="AU22:BA22"/>
+    <mergeCell ref="BB22:BH22"/>
+    <mergeCell ref="BI22:BO22"/>
+    <mergeCell ref="BP22:BV22"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:CJ20">
     <cfRule type="expression" dxfId="0" priority="1">
